--- a/sample_new_data.xlsx
+++ b/sample_new_data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH100"/>
+  <dimension ref="A1:AI100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -503,6 +503,9 @@
         <v>Travel From</v>
       </c>
       <c r="AH1" t="str">
+        <v>External File Links</v>
+      </c>
+      <c r="AI1" t="str">
         <v>Travel To</v>
       </c>
     </row>
@@ -601,6 +604,9 @@
         <v>New Delhi</v>
       </c>
       <c r="AH2" t="str">
+        <v>https://wormhole.app/6Y1Z4E#TaAarl-rE6bznRDXWf3Okg</v>
+      </c>
+      <c r="AI2" t="str">
         <v>Surat</v>
       </c>
     </row>
@@ -699,6 +705,9 @@
         <v>New Delhi</v>
       </c>
       <c r="AH3" t="str">
+        <v>https://wormhole.app/6Y1Z4E#TaAarl-rE6bznRDXWf3Okg</v>
+      </c>
+      <c r="AI3" t="str">
         <v>Surat</v>
       </c>
     </row>
@@ -797,6 +806,9 @@
         <v>New Delhi</v>
       </c>
       <c r="AH4" t="str">
+        <v>https://wormhole.app/6Y1Z4E#TaAarl-rE6bznRDXWf3Okg</v>
+      </c>
+      <c r="AI4" t="str">
         <v>Mumbai</v>
       </c>
     </row>
@@ -895,6 +907,9 @@
         <v>New Delhi</v>
       </c>
       <c r="AH5" t="str">
+        <v>https://wormhole.app/6Y1Z4E#TaAarl-rE6bznRDXWf3Okg</v>
+      </c>
+      <c r="AI5" t="str">
         <v>Mumbai</v>
       </c>
     </row>
@@ -960,6 +975,9 @@
         <v>NA</v>
       </c>
       <c r="AH6" t="str">
+        <v>https://wormhole.app/6Y1Z4E#TaAarl-rE6bznRDXWf3Okg</v>
+      </c>
+      <c r="AI6" t="str">
         <v>NA</v>
       </c>
     </row>
@@ -1025,6 +1043,9 @@
         <v>NA</v>
       </c>
       <c r="AH7" t="str">
+        <v>https://wormhole.app/6Y1Z4E#TaAarl-rE6bznRDXWf3Okg</v>
+      </c>
+      <c r="AI7" t="str">
         <v>NA</v>
       </c>
     </row>
@@ -1123,6 +1144,9 @@
         <v>New Delhi</v>
       </c>
       <c r="AH8" t="str">
+        <v>https://wormhole.app/6Y1Z4E#TaAarl-rE6bznRDXWf3Okg</v>
+      </c>
+      <c r="AI8" t="str">
         <v>Mumbai</v>
       </c>
     </row>
@@ -1221,6 +1245,9 @@
         <v>NA</v>
       </c>
       <c r="AH9" t="str">
+        <v>https://wormhole.app/ROd2rN#xS3mraya3_qNbIe5hC6UTw</v>
+      </c>
+      <c r="AI9" t="str">
         <v>NA</v>
       </c>
     </row>
@@ -1318,7 +1345,7 @@
       <c r="AG10" t="str">
         <v>NA</v>
       </c>
-      <c r="AH10" t="str">
+      <c r="AI10" t="str">
         <v>NA</v>
       </c>
     </row>
@@ -1416,7 +1443,7 @@
       <c r="AG11" t="str">
         <v>New Delhi</v>
       </c>
-      <c r="AH11" t="str">
+      <c r="AI11" t="str">
         <v>Mumbai</v>
       </c>
     </row>
@@ -1514,7 +1541,7 @@
       <c r="AG12" t="str">
         <v>New Delhi</v>
       </c>
-      <c r="AH12" t="str">
+      <c r="AI12" t="str">
         <v>Cochin</v>
       </c>
     </row>
@@ -1612,7 +1639,7 @@
       <c r="AG13" t="str">
         <v>NA</v>
       </c>
-      <c r="AH13" t="str">
+      <c r="AI13" t="str">
         <v>NA</v>
       </c>
     </row>
@@ -1711,6 +1738,9 @@
         <v>NA</v>
       </c>
       <c r="AH14" t="str">
+        <v>https://wormhole.app/6Y1Z4E#TaAarl-rE6bznRDXWf3Okg</v>
+      </c>
+      <c r="AI14" t="str">
         <v>NA</v>
       </c>
     </row>
@@ -1808,7 +1838,7 @@
       <c r="AG15" t="str">
         <v>NA</v>
       </c>
-      <c r="AH15" t="str">
+      <c r="AI15" t="str">
         <v>NA</v>
       </c>
     </row>
@@ -1891,7 +1921,7 @@
       <c r="AG16" t="str">
         <v>Bengaluru</v>
       </c>
-      <c r="AH16" t="str">
+      <c r="AI16" t="str">
         <v>New Delhi</v>
       </c>
     </row>
@@ -1989,7 +2019,7 @@
       <c r="AG17" t="str">
         <v>Bengaluru</v>
       </c>
-      <c r="AH17" t="str">
+      <c r="AI17" t="str">
         <v>New Delhi</v>
       </c>
     </row>
@@ -2087,7 +2117,7 @@
       <c r="AG18" t="str">
         <v>Mumbai</v>
       </c>
-      <c r="AH18" t="str">
+      <c r="AI18" t="str">
         <v>Indore</v>
       </c>
     </row>
@@ -2186,6 +2216,9 @@
         <v>NA</v>
       </c>
       <c r="AH19" t="str">
+        <v>https://wormhole.app/6Y1Z4E#TaAarl-rE6bznRDXWf3Okg</v>
+      </c>
+      <c r="AI19" t="str">
         <v>NA</v>
       </c>
     </row>
@@ -2283,7 +2316,7 @@
       <c r="AG20" t="str">
         <v>Mumbai</v>
       </c>
-      <c r="AH20" t="str">
+      <c r="AI20" t="str">
         <v>Hyderabad</v>
       </c>
     </row>
@@ -2381,7 +2414,7 @@
       <c r="AG21" t="str">
         <v>AHMEDABAD JN- ADI</v>
       </c>
-      <c r="AH21" t="str">
+      <c r="AI21" t="str">
         <v>SURAT- ST</v>
       </c>
     </row>
@@ -2479,7 +2512,7 @@
       <c r="AG22" t="str">
         <v>Bengaluru</v>
       </c>
-      <c r="AH22" t="str">
+      <c r="AI22" t="str">
         <v>Pune</v>
       </c>
     </row>
@@ -2577,7 +2610,7 @@
       <c r="AG23" t="str">
         <v>CHENNAI CENTRAL- MAS</v>
       </c>
-      <c r="AH23" t="str">
+      <c r="AI23" t="str">
         <v>BANGALORE CY JN- SBC</v>
       </c>
     </row>
@@ -2675,7 +2708,7 @@
       <c r="AG24" t="str">
         <v>BANGALORE CY JN- SBC</v>
       </c>
-      <c r="AH24" t="str">
+      <c r="AI24" t="str">
         <v>CHENNAI CENTRAL- MAS</v>
       </c>
     </row>
@@ -2773,7 +2806,7 @@
       <c r="AG25" t="str">
         <v>CHENNAI CENTRAL- MAS</v>
       </c>
-      <c r="AH25" t="str">
+      <c r="AI25" t="str">
         <v>BANGALORE CY JN- SBC</v>
       </c>
     </row>
@@ -2838,7 +2871,7 @@
       <c r="AG26" t="str">
         <v>NA</v>
       </c>
-      <c r="AH26" t="str">
+      <c r="AI26" t="str">
         <v>NA</v>
       </c>
     </row>
@@ -2936,7 +2969,7 @@
       <c r="AG27" t="str">
         <v>NA</v>
       </c>
-      <c r="AH27" t="str">
+      <c r="AI27" t="str">
         <v>NA</v>
       </c>
     </row>
@@ -3034,7 +3067,7 @@
       <c r="AG28" t="str">
         <v>NA</v>
       </c>
-      <c r="AH28" t="str">
+      <c r="AI28" t="str">
         <v>NA</v>
       </c>
     </row>
@@ -3132,7 +3165,7 @@
       <c r="AG29" t="str">
         <v>NA</v>
       </c>
-      <c r="AH29" t="str">
+      <c r="AI29" t="str">
         <v>NA</v>
       </c>
     </row>
@@ -3230,7 +3263,7 @@
       <c r="AG30" t="str">
         <v>Mumbai</v>
       </c>
-      <c r="AH30" t="str">
+      <c r="AI30" t="str">
         <v>Bangalore</v>
       </c>
     </row>
@@ -3328,7 +3361,7 @@
       <c r="AG31" t="str">
         <v>NA</v>
       </c>
-      <c r="AH31" t="str">
+      <c r="AI31" t="str">
         <v>NA</v>
       </c>
     </row>
@@ -3393,7 +3426,7 @@
       <c r="AG32" t="str">
         <v>Indore</v>
       </c>
-      <c r="AH32" t="str">
+      <c r="AI32" t="str">
         <v>Indore</v>
       </c>
     </row>
@@ -3491,7 +3524,7 @@
       <c r="AG33" t="str">
         <v>SECUNDERABAD JN- SC</v>
       </c>
-      <c r="AH33" t="str">
+      <c r="AI33" t="str">
         <v>GUNTUR JN- GNT</v>
       </c>
     </row>
@@ -3586,7 +3619,7 @@
       <c r="AG34" t="str">
         <v>SECUNDERABAD JN- SC</v>
       </c>
-      <c r="AH34" t="str">
+      <c r="AI34" t="str">
         <v>GUNTUR JN- GNT</v>
       </c>
     </row>
@@ -3684,7 +3717,7 @@
       <c r="AG35" t="str">
         <v>Mumbai</v>
       </c>
-      <c r="AH35" t="str">
+      <c r="AI35" t="str">
         <v>Hyderabad</v>
       </c>
     </row>
@@ -3782,7 +3815,7 @@
       <c r="AG36" t="str">
         <v>Chennai</v>
       </c>
-      <c r="AH36" t="str">
+      <c r="AI36" t="str">
         <v>Hyderabad</v>
       </c>
     </row>
@@ -3880,7 +3913,7 @@
       <c r="AG37" t="str">
         <v>Chennai</v>
       </c>
-      <c r="AH37" t="str">
+      <c r="AI37" t="str">
         <v>Cochin</v>
       </c>
     </row>
@@ -3978,7 +4011,7 @@
       <c r="AG38" t="str">
         <v>NA</v>
       </c>
-      <c r="AH38" t="str">
+      <c r="AI38" t="str">
         <v>NA</v>
       </c>
     </row>
@@ -4076,7 +4109,7 @@
       <c r="AG39" t="str">
         <v>Chennai</v>
       </c>
-      <c r="AH39" t="str">
+      <c r="AI39" t="str">
         <v>Cochin</v>
       </c>
     </row>
@@ -4174,7 +4207,7 @@
       <c r="AG40" t="str">
         <v>NA</v>
       </c>
-      <c r="AH40" t="str">
+      <c r="AI40" t="str">
         <v>NA</v>
       </c>
     </row>
@@ -4272,7 +4305,7 @@
       <c r="AG41" t="str">
         <v>Ahmedabad</v>
       </c>
-      <c r="AH41" t="str">
+      <c r="AI41" t="str">
         <v>Mumbai</v>
       </c>
     </row>
@@ -4370,7 +4403,7 @@
       <c r="AG42" t="str">
         <v>Pune</v>
       </c>
-      <c r="AH42" t="str">
+      <c r="AI42" t="str">
         <v>Bengaluru</v>
       </c>
     </row>
@@ -4435,7 +4468,7 @@
       <c r="AG43" t="str">
         <v>NA</v>
       </c>
-      <c r="AH43" t="str">
+      <c r="AI43" t="str">
         <v>NA</v>
       </c>
     </row>
@@ -4533,7 +4566,7 @@
       <c r="AG44" t="str">
         <v>New Delhi</v>
       </c>
-      <c r="AH44" t="str">
+      <c r="AI44" t="str">
         <v>Mumbai</v>
       </c>
     </row>
@@ -4616,7 +4649,7 @@
       <c r="AG45" t="str">
         <v>NA</v>
       </c>
-      <c r="AH45" t="str">
+      <c r="AI45" t="str">
         <v>NA</v>
       </c>
     </row>
@@ -4714,7 +4747,7 @@
       <c r="AG46" t="str">
         <v>Bangalore</v>
       </c>
-      <c r="AH46" t="str">
+      <c r="AI46" t="str">
         <v>New Delhi</v>
       </c>
     </row>
@@ -4812,7 +4845,7 @@
       <c r="AG47" t="str">
         <v>Ahmedabad</v>
       </c>
-      <c r="AH47" t="str">
+      <c r="AI47" t="str">
         <v>Mumbai</v>
       </c>
     </row>
@@ -4910,7 +4943,7 @@
       <c r="AG48" t="str">
         <v>Ahmedabad</v>
       </c>
-      <c r="AH48" t="str">
+      <c r="AI48" t="str">
         <v>Mumbai</v>
       </c>
     </row>
@@ -5008,7 +5041,7 @@
       <c r="AG49" t="str">
         <v>Noida</v>
       </c>
-      <c r="AH49" t="str">
+      <c r="AI49" t="str">
         <v>Chandigarh</v>
       </c>
     </row>
@@ -5073,7 +5106,7 @@
       <c r="AG50" t="str">
         <v>Kochi</v>
       </c>
-      <c r="AH50" t="str">
+      <c r="AI50" t="str">
         <v>Idukki</v>
       </c>
     </row>
@@ -5171,7 +5204,7 @@
       <c r="AG51" t="str">
         <v>New Delhi</v>
       </c>
-      <c r="AH51" t="str">
+      <c r="AI51" t="str">
         <v>Mumbai</v>
       </c>
     </row>
@@ -5269,7 +5302,7 @@
       <c r="AG52" t="str">
         <v>PATNA JN- PNBE</v>
       </c>
-      <c r="AH52" t="str">
+      <c r="AI52" t="str">
         <v>SAMASTIPUR JN- SPJ</v>
       </c>
     </row>
@@ -5334,7 +5367,7 @@
       <c r="AG53" t="str">
         <v>New Delhi</v>
       </c>
-      <c r="AH53" t="str">
+      <c r="AI53" t="str">
         <v>Mumbai</v>
       </c>
     </row>
@@ -5432,7 +5465,7 @@
       <c r="AG54" t="str">
         <v>BORIVALI- BVI</v>
       </c>
-      <c r="AH54" t="str">
+      <c r="AI54" t="str">
         <v>SURAT- ST</v>
       </c>
     </row>
@@ -5530,7 +5563,7 @@
       <c r="AG55" t="str">
         <v>CHENNAI CENTRAL- MAS</v>
       </c>
-      <c r="AH55" t="str">
+      <c r="AI55" t="str">
         <v>KOZHIKODE- CLT</v>
       </c>
     </row>
@@ -5595,7 +5628,7 @@
       <c r="AG56" t="str">
         <v>NA</v>
       </c>
-      <c r="AH56" t="str">
+      <c r="AI56" t="str">
         <v>NA</v>
       </c>
     </row>
@@ -5693,7 +5726,7 @@
       <c r="AG57" t="str">
         <v>CHENNAI CENTRAL- MAS</v>
       </c>
-      <c r="AH57" t="str">
+      <c r="AI57" t="str">
         <v>KOZHIKODE- CLT</v>
       </c>
     </row>
@@ -5791,7 +5824,7 @@
       <c r="AG58" t="str">
         <v>Pune</v>
       </c>
-      <c r="AH58" t="str">
+      <c r="AI58" t="str">
         <v>Mumbai</v>
       </c>
     </row>
@@ -5889,7 +5922,7 @@
       <c r="AG59" t="str">
         <v>New Delhi</v>
       </c>
-      <c r="AH59" t="str">
+      <c r="AI59" t="str">
         <v>Pune</v>
       </c>
     </row>
@@ -5987,7 +6020,7 @@
       <c r="AG60" t="str">
         <v>New Delhi</v>
       </c>
-      <c r="AH60" t="str">
+      <c r="AI60" t="str">
         <v>Pune</v>
       </c>
     </row>
@@ -6085,7 +6118,7 @@
       <c r="AG61" t="str">
         <v>Pune</v>
       </c>
-      <c r="AH61" t="str">
+      <c r="AI61" t="str">
         <v>New Delhi</v>
       </c>
     </row>
@@ -6150,7 +6183,7 @@
       <c r="AG62" t="str">
         <v>Kochi</v>
       </c>
-      <c r="AH62" t="str">
+      <c r="AI62" t="str">
         <v>Kollam</v>
       </c>
     </row>
@@ -6215,7 +6248,7 @@
       <c r="AG63" t="str">
         <v>AHMEDABAD JN- ADI</v>
       </c>
-      <c r="AH63" t="str">
+      <c r="AI63" t="str">
         <v>JAMNAGAR- JAM</v>
       </c>
     </row>
@@ -6313,7 +6346,7 @@
       <c r="AG64" t="str">
         <v>MUMBAI CENTRAL- BCT</v>
       </c>
-      <c r="AH64" t="str">
+      <c r="AI64" t="str">
         <v>SURAT- ST</v>
       </c>
     </row>
@@ -6411,7 +6444,7 @@
       <c r="AG65" t="str">
         <v>NA</v>
       </c>
-      <c r="AH65" t="str">
+      <c r="AI65" t="str">
         <v>NA</v>
       </c>
     </row>
@@ -6509,7 +6542,7 @@
       <c r="AG66" t="str">
         <v>SEALDAH- SDAH</v>
       </c>
-      <c r="AH66" t="str">
+      <c r="AI66" t="str">
         <v>SAHARSA JN- SHC</v>
       </c>
     </row>
@@ -6607,7 +6640,7 @@
       <c r="AG67" t="str">
         <v>SEALDAH- SDAH</v>
       </c>
-      <c r="AH67" t="str">
+      <c r="AI67" t="str">
         <v>SAHARSA JN- SHC</v>
       </c>
     </row>
@@ -6705,7 +6738,7 @@
       <c r="AG68" t="str">
         <v>NA</v>
       </c>
-      <c r="AH68" t="str">
+      <c r="AI68" t="str">
         <v>NA</v>
       </c>
     </row>
@@ -6803,7 +6836,7 @@
       <c r="AG69" t="str">
         <v>Mumbai</v>
       </c>
-      <c r="AH69" t="str">
+      <c r="AI69" t="str">
         <v>New Delhi</v>
       </c>
     </row>
@@ -6901,7 +6934,7 @@
       <c r="AG70" t="str">
         <v>New Delhi</v>
       </c>
-      <c r="AH70" t="str">
+      <c r="AI70" t="str">
         <v>Mumbai</v>
       </c>
     </row>
@@ -6999,7 +7032,7 @@
       <c r="AG71" t="str">
         <v>Pune</v>
       </c>
-      <c r="AH71" t="str">
+      <c r="AI71" t="str">
         <v>New Delhi</v>
       </c>
     </row>
@@ -7064,7 +7097,7 @@
       <c r="AG72" t="str">
         <v>NA</v>
       </c>
-      <c r="AH72" t="str">
+      <c r="AI72" t="str">
         <v>NA</v>
       </c>
     </row>
@@ -7159,7 +7192,7 @@
       <c r="AG73" t="str">
         <v>Mumbai</v>
       </c>
-      <c r="AH73" t="str">
+      <c r="AI73" t="str">
         <v>Vishakhapatanam</v>
       </c>
     </row>
@@ -7257,7 +7290,7 @@
       <c r="AG74" t="str">
         <v>Mumbai</v>
       </c>
-      <c r="AH74" t="str">
+      <c r="AI74" t="str">
         <v>Vishakhapatanam</v>
       </c>
     </row>
@@ -7355,7 +7388,7 @@
       <c r="AG75" t="str">
         <v>NA</v>
       </c>
-      <c r="AH75" t="str">
+      <c r="AI75" t="str">
         <v>NA</v>
       </c>
     </row>
@@ -7453,7 +7486,7 @@
       <c r="AG76" t="str">
         <v>New Delhi</v>
       </c>
-      <c r="AH76" t="str">
+      <c r="AI76" t="str">
         <v>Jamnagar</v>
       </c>
     </row>
@@ -7551,7 +7584,7 @@
       <c r="AG77" t="str">
         <v>New Delhi</v>
       </c>
-      <c r="AH77" t="str">
+      <c r="AI77" t="str">
         <v>Jamnagar</v>
       </c>
     </row>
@@ -7649,7 +7682,7 @@
       <c r="AG78" t="str">
         <v>NA</v>
       </c>
-      <c r="AH78" t="str">
+      <c r="AI78" t="str">
         <v>NA</v>
       </c>
     </row>
@@ -7714,7 +7747,7 @@
       <c r="AG79" t="str">
         <v>NA</v>
       </c>
-      <c r="AH79" t="str">
+      <c r="AI79" t="str">
         <v>NA</v>
       </c>
     </row>
@@ -7812,7 +7845,7 @@
       <c r="AG80" t="str">
         <v>NA</v>
       </c>
-      <c r="AH80" t="str">
+      <c r="AI80" t="str">
         <v>NA</v>
       </c>
     </row>
@@ -7877,7 +7910,7 @@
       <c r="AG81" t="str">
         <v>NA</v>
       </c>
-      <c r="AH81" t="str">
+      <c r="AI81" t="str">
         <v>NA</v>
       </c>
     </row>
@@ -7942,7 +7975,7 @@
       <c r="AG82" t="str">
         <v>Kochi</v>
       </c>
-      <c r="AH82" t="str">
+      <c r="AI82" t="str">
         <v>Kollam</v>
       </c>
     </row>
@@ -8007,7 +8040,7 @@
       <c r="AG83" t="str">
         <v>NA</v>
       </c>
-      <c r="AH83" t="str">
+      <c r="AI83" t="str">
         <v>NA</v>
       </c>
     </row>
@@ -8105,7 +8138,7 @@
       <c r="AG84" t="str">
         <v>NA</v>
       </c>
-      <c r="AH84" t="str">
+      <c r="AI84" t="str">
         <v>NA</v>
       </c>
     </row>
@@ -8203,7 +8236,7 @@
       <c r="AG85" t="str">
         <v>NA</v>
       </c>
-      <c r="AH85" t="str">
+      <c r="AI85" t="str">
         <v>NA</v>
       </c>
     </row>
@@ -8301,7 +8334,7 @@
       <c r="AG86" t="str">
         <v>HOWRAH JN- HWH</v>
       </c>
-      <c r="AH86" t="str">
+      <c r="AI86" t="str">
         <v>PATNA JN- PNBE</v>
       </c>
     </row>
@@ -8399,7 +8432,7 @@
       <c r="AG87" t="str">
         <v>CHENNAI CENTRAL- MAS</v>
       </c>
-      <c r="AH87" t="str">
+      <c r="AI87" t="str">
         <v>ERNAKULAM TOWN- ERN</v>
       </c>
     </row>
@@ -8497,7 +8530,7 @@
       <c r="AG88" t="str">
         <v>NA</v>
       </c>
-      <c r="AH88" t="str">
+      <c r="AI88" t="str">
         <v>NA</v>
       </c>
     </row>
@@ -8562,7 +8595,7 @@
       <c r="AG89" t="str">
         <v>New Delhi</v>
       </c>
-      <c r="AH89" t="str">
+      <c r="AI89" t="str">
         <v>Mumbai</v>
       </c>
     </row>
@@ -8627,7 +8660,7 @@
       <c r="AG90" t="str">
         <v>MUMBAI</v>
       </c>
-      <c r="AH90" t="str">
+      <c r="AI90" t="str">
         <v>Pune</v>
       </c>
     </row>
@@ -8725,7 +8758,7 @@
       <c r="AG91" t="str">
         <v>TATANAGAR JN- TATA</v>
       </c>
-      <c r="AH91" t="str">
+      <c r="AI91" t="str">
         <v>PATNA JN- PNBE</v>
       </c>
     </row>
@@ -8825,7 +8858,7 @@
       <c r="AG92" t="str">
         <v>NA</v>
       </c>
-      <c r="AH92" t="str">
+      <c r="AI92" t="str">
         <v>NA</v>
       </c>
     </row>
@@ -8923,7 +8956,7 @@
       <c r="AG93" t="str">
         <v>Mumbai</v>
       </c>
-      <c r="AH93" t="str">
+      <c r="AI93" t="str">
         <v>Ahmedabad</v>
       </c>
     </row>
@@ -9021,7 +9054,7 @@
       <c r="AG94" t="str">
         <v>NA</v>
       </c>
-      <c r="AH94" t="str">
+      <c r="AI94" t="str">
         <v>NA</v>
       </c>
     </row>
@@ -9119,7 +9152,7 @@
       <c r="AG95" t="str">
         <v>NA</v>
       </c>
-      <c r="AH95" t="str">
+      <c r="AI95" t="str">
         <v>NA</v>
       </c>
     </row>
@@ -9214,7 +9247,7 @@
       <c r="AG96" t="str">
         <v>Mumbai</v>
       </c>
-      <c r="AH96" t="str">
+      <c r="AI96" t="str">
         <v>Madurai</v>
       </c>
     </row>
@@ -9312,7 +9345,7 @@
       <c r="AG97" t="str">
         <v>Ahmedabad</v>
       </c>
-      <c r="AH97" t="str">
+      <c r="AI97" t="str">
         <v>Ahmedabad</v>
       </c>
     </row>
@@ -9410,7 +9443,7 @@
       <c r="AG98" t="str">
         <v>Pune</v>
       </c>
-      <c r="AH98" t="str">
+      <c r="AI98" t="str">
         <v>New Delhi</v>
       </c>
     </row>
@@ -9508,7 +9541,7 @@
       <c r="AG99" t="str">
         <v>Mumbai</v>
       </c>
-      <c r="AH99" t="str">
+      <c r="AI99" t="str">
         <v>Ahmedabad</v>
       </c>
     </row>
@@ -9606,13 +9639,13 @@
       <c r="AG100" t="str">
         <v>AHMEDABAD JN- ADI</v>
       </c>
-      <c r="AH100" t="str">
+      <c r="AI100" t="str">
         <v>VADODARA JN- BRC</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AH100"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AI100"/>
   </ignoredErrors>
 </worksheet>
 </file>